--- a/biology/Médecine/Assessment_on_COVID-19_Origins/Assessment_on_COVID-19_Origins.xlsx
+++ b/biology/Médecine/Assessment_on_COVID-19_Origins/Assessment_on_COVID-19_Origins.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le rapport « Assessment on COVID-19 Origins »[1] (en français : Évaluation des origines de la Covid-19) est un rapport d'évaluation émanant d'agences de renseignement américaines commandé par le président des États-Unis d'Amérique Joe Biden en 2021 au sujet des origines de la maladie à coronavirus 2019 (Covid-19)[2].
-Ce rapport classé « top secret » est remis le 24 août 2021 au président des États-Unis, qui demande fin mai 2021 aux services de renseignement américains de « redoubler d'efforts » pour trouver une explication à l'origine de la Covid-19. L'enquête dure donc 90 jours[3]. Le résumé de cette évaluation est déclassifié et rendu public trois jours plus tard[4].
+Le rapport « Assessment on COVID-19 Origins » (en français : Évaluation des origines de la Covid-19) est un rapport d'évaluation émanant d'agences de renseignement américaines commandé par le président des États-Unis d'Amérique Joe Biden en 2021 au sujet des origines de la maladie à coronavirus 2019 (Covid-19).
+Ce rapport classé « top secret » est remis le 24 août 2021 au président des États-Unis, qui demande fin mai 2021 aux services de renseignement américains de « redoubler d'efforts » pour trouver une explication à l'origine de la Covid-19. L'enquête dure donc 90 jours. Le résumé de cette évaluation est déclassifié et rendu public trois jours plus tard.
 </t>
         </is>
       </c>
@@ -513,13 +525,15 @@
           <t>Origine de l'enquête</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le gouvernement fédéral enquête depuis le début de la pandémie sur la possibilité d'une origine artificielle du Covid-19. En fait, les agences de renseignement américaines ont confirmé en avril 2020 qu'elles examinaient la possibilité d'une fuite de laboratoire de l'Institut de virologie de Wuhan.
-L'ancien président Donald J. Trump et l'ancien secrétaire d'État Mike Pompeo déclare au public fin avril 2020 qu'il existait des preuves importantes concernant l'hypothèse des fuites de laboratoire[5],[6].
+L'ancien président Donald J. Trump et l'ancien secrétaire d'État Mike Pompeo déclare au public fin avril 2020 qu'il existait des preuves importantes concernant l'hypothèse des fuites de laboratoire,.
 En février 2021, le conseiller à la sécurité nationale des États-Unis, Jake Sullivan, presse publiquement la  Chine  et l'Organisation mondiale de la santé (OMS) d'être transparentes dans leurs processus d'enquête sur les origines du Sars-CoV-2 après avoir exprimé son mécontentement face aux premières conclusions de l'enquête de l'OMS. Le rapport complet de l'OMS est largement décrit comme un effort infructueux pour obtenir les preuves nécessaires en raison du manque d'accès approprié en  Chine . 
-Ainsi, en février 2021, le Conseiller à la sécurité nationale Jake Sullivan déclare « Nous avons de fortes inquiétudes sur la façon dont les premiers résultats de l’enquête sur la Covid-19 ont été communiqués et des questions sur la procédure utilisée pour y parvenir »[7].
-Le président Biden ordonne des examens complets à l'échelle du gouvernement pour essayer de faire la lumière sur ce qui s'est passé. Il a lancé un premier examen en mars coordonné par Jake Sullivan. Les résultats concluent qu'il s'agissait probablement de l'un de ces deux scénarios suivants : le Sars-CoV-2 est issu d'une exposition naturelle à un animal infecté ou le Sars-CoV-2 est issu d'une fuite de laboratoire. Il est donc demandé fin mai à l'ensemble du gouvernement, sur une base de 90 jours, de travailler avec des experts des différentes agences du renseignement américain sur ce sujet. C'est ainsi que Biden commande auprès de l'US intelligence community (IC), un comité qui rassemble 18 agences américaines de renseignement, cette fameuse évaluation[8].
+Ainsi, en février 2021, le Conseiller à la sécurité nationale Jake Sullivan déclare « Nous avons de fortes inquiétudes sur la façon dont les premiers résultats de l’enquête sur la Covid-19 ont été communiqués et des questions sur la procédure utilisée pour y parvenir ».
+Le président Biden ordonne des examens complets à l'échelle du gouvernement pour essayer de faire la lumière sur ce qui s'est passé. Il a lancé un premier examen en mars coordonné par Jake Sullivan. Les résultats concluent qu'il s'agissait probablement de l'un de ces deux scénarios suivants : le Sars-CoV-2 est issu d'une exposition naturelle à un animal infecté ou le Sars-CoV-2 est issu d'une fuite de laboratoire. Il est donc demandé fin mai à l'ensemble du gouvernement, sur une base de 90 jours, de travailler avec des experts des différentes agences du renseignement américain sur ce sujet. C'est ainsi que Biden commande auprès de l'US intelligence community (IC), un comité qui rassemble 18 agences américaines de renseignement, cette fameuse évaluation.
 </t>
         </is>
       </c>
@@ -548,9 +562,11 @@
           <t>Contenu du rapport</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le rapport en question est classifié à l'exception d'un résumé rendu public et publié sur le site de la Directrice du renseignement national le 27 août 2021[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le rapport en question est classifié à l'exception d'un résumé rendu public et publié sur le site de la Directrice du renseignement national le 27 août 2021.
 Selon ledit résumé, ce rapport d'évaluation émet l'hypothèse selon laquelle le SRAS-CoV-2, le virus du Covid 19, a probablement émergé et infecté des humains lors d'une première exposition à petite échelle survenue au plus tard en novembre 2019 avec un premier groupe de cas contacts à Wuhan.
 En outre, les agences ont pu parvenir à un large accord sur plusieurs autres questions clés. Selon ce rapport, le virus n'a pas été développé comme une arme biologique. La plupart des agences évaluent également avec un faible indice de confiance que le Sars-CoV-2 n'a probablement pas été génétiquement modifié.
 Cependant, deux agences croient qu'il n'y a pas suffisamment de preuves pour faire une évaluation dans un sens ou dans l'autre.
@@ -594,12 +610,14 @@
           <t>Conséquences</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les analystes considèrent que ce rapport d'enquête du renseignement américain se révèle incapable de trancher sur la question des origines de la pandémie de Covid-19[10].
-Le président Joe Biden, quant à lui, a accusé la Chine de « dissimuler des informations cruciales sur les origines de la pandémie de Covid-19 », considérant que « ces informations existent en Chine, et pourtant depuis le début, des responsables gouvernementaux en Chine œuvrent pour empêcher les enquêteurs internationaux et les acteurs mondiaux de la santé publique d'y accéder » [11].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les analystes considèrent que ce rapport d'enquête du renseignement américain se révèle incapable de trancher sur la question des origines de la pandémie de Covid-19.
+Le président Joe Biden, quant à lui, a accusé la Chine de « dissimuler des informations cruciales sur les origines de la pandémie de Covid-19 », considérant que « ces informations existent en Chine, et pourtant depuis le début, des responsables gouvernementaux en Chine œuvrent pour empêcher les enquêteurs internationaux et les acteurs mondiaux de la santé publique d'y accéder » .
 Les dirigeants chinois considèrent que la Chine fait figure de bouc émissaire dans le cadre de  cette enquête.
-À ce titre, le vice-ministre des Affaires étrangères, Ma Zhaoxu, a exprimé sa désapprobation concernant cette évaluation déclarant que « Sans aucune preuve, [les agences américaines de renseignement] persistent à tisser des mensonges en vue de salir et de critiquer la Chine. Leur but est de rejeter la responsabilité sur la Chine. » et que « Plus de 25 millions d'internautes chinois ont signé une lettre ouverte réclamant une enquête sur Fort Detrick aux Etats-Unis »[12].
+À ce titre, le vice-ministre des Affaires étrangères, Ma Zhaoxu, a exprimé sa désapprobation concernant cette évaluation déclarant que « Sans aucune preuve, [les agences américaines de renseignement] persistent à tisser des mensonges en vue de salir et de critiquer la Chine. Leur but est de rejeter la responsabilité sur la Chine. » et que « Plus de 25 millions d'internautes chinois ont signé une lettre ouverte réclamant une enquête sur Fort Detrick aux Etats-Unis ».
 </t>
         </is>
       </c>
